--- a/app/static/user_data/Keywords.xlsx
+++ b/app/static/user_data/Keywords.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="263">
   <si>
     <t>{last_name}</t>
   </si>
@@ -772,6 +772,42 @@
   </si>
   <si>
     <t>после точки стояла 1; о втором - в кодовых словах после точки должна стоять 2 и т.д.</t>
+  </si>
+  <si>
+    <t>{vus@number}</t>
+  </si>
+  <si>
+    <t>{vus@code}</t>
+  </si>
+  <si>
+    <t>{vus@name1}</t>
+  </si>
+  <si>
+    <t>{vus@name2}</t>
+  </si>
+  <si>
+    <t>Номер ВУС</t>
+  </si>
+  <si>
+    <t>Код ВУС</t>
+  </si>
+  <si>
+    <t>Название (напр., "рассчетно-аналитических станций РХБЗ")</t>
+  </si>
+  <si>
+    <t>Название (напр., "вычислитель")</t>
+  </si>
+  <si>
+    <t>{year@birth_date}</t>
+  </si>
+  <si>
+    <t>Год рождения</t>
+  </si>
+  <si>
+    <t>{year_last2@birt_date}</t>
+  </si>
+  <si>
+    <t>Последние 2 цифры года рождения</t>
   </si>
 </sst>
 </file>
@@ -925,6 +961,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -934,11 +972,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1277,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F177"/>
+  <dimension ref="A1:F183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1290,69 +1326,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="23">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="15" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="23" customHeight="1">
-      <c r="A2" s="19"/>
+      <c r="A2" s="15"/>
     </row>
     <row r="3" spans="1:1" ht="23" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="15" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="23">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="15" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="23">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="15" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="23">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="15" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="23">
-      <c r="A7" s="19"/>
+      <c r="A7" s="15"/>
     </row>
     <row r="8" spans="1:1" ht="23">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="15" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="23">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="15" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="23">
-      <c r="A10" s="19"/>
+      <c r="A10" s="15"/>
     </row>
     <row r="11" spans="1:1" ht="23">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="15" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="23">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="15" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="23">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="15" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="23">
-      <c r="A14" s="19"/>
+      <c r="A14" s="15"/>
     </row>
     <row r="15" spans="1:1" ht="23">
-      <c r="A15" s="19"/>
+      <c r="A15" s="15"/>
     </row>
     <row r="17" spans="1:6" ht="20" thickBot="1">
       <c r="A17" s="3" t="s">
@@ -1398,1427 +1434,1474 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>259</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>5</v>
+        <v>261</v>
       </c>
       <c r="B23" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="20" thickBot="1">
-      <c r="A29" s="2" t="s">
+    <row r="31" spans="1:6" ht="20" thickBot="1">
+      <c r="A31" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" ht="16" thickTop="1">
-      <c r="A30" s="1" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="16" thickTop="1">
+      <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="20" thickBot="1">
-      <c r="A35" s="2" t="s">
+    <row r="37" spans="1:6" ht="20" thickBot="1">
+      <c r="A37" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" ht="16" thickTop="1">
-      <c r="A36" s="1" t="s">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" ht="16" thickTop="1">
+      <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="20" thickBot="1">
-      <c r="A40" s="2" t="s">
+    <row r="42" spans="1:6" ht="20" thickBot="1">
+      <c r="A42" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" ht="16" thickTop="1">
-      <c r="A41" s="1" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" ht="16" thickTop="1">
+      <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="20" thickBot="1">
-      <c r="A50" s="2" t="s">
+    <row r="52" spans="1:6" ht="20" thickBot="1">
+      <c r="A52" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" ht="16" thickTop="1">
-      <c r="A51" s="1" t="s">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" ht="16" thickTop="1">
+      <c r="A53" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B57" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="20" thickBot="1">
-      <c r="A56" s="2" t="s">
+    <row r="58" spans="1:6" ht="20" thickBot="1">
+      <c r="A58" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" ht="16" thickTop="1">
-      <c r="A57" s="1" t="s">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" ht="16" thickTop="1">
+      <c r="A59" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B58" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B59" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B61" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B64" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="20" thickBot="1">
-      <c r="A63" s="2" t="s">
+    <row r="65" spans="1:6" ht="20" thickBot="1">
+      <c r="A65" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-    </row>
-    <row r="64" spans="1:6" ht="16" thickTop="1">
-      <c r="A64" s="1" t="s">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" ht="16" thickTop="1">
+      <c r="A66" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B66" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B65" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B66" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B69" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="20" thickBot="1">
-      <c r="A68" s="2" t="s">
+    <row r="70" spans="1:6" ht="20" thickBot="1">
+      <c r="A70" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-    </row>
-    <row r="69" spans="1:6" ht="16" thickTop="1">
-      <c r="A69" s="1" t="s">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" ht="16" thickTop="1">
+      <c r="A71" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B71" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B70" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B71" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B72" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B75" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="20" thickBot="1">
-      <c r="A74" s="2" t="s">
+    <row r="76" spans="1:6" ht="20" thickBot="1">
+      <c r="A76" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-    </row>
-    <row r="75" spans="1:6" ht="16" thickTop="1">
-      <c r="A75" s="1" t="s">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6" ht="16" thickTop="1">
+      <c r="A77" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B77" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B76" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B77" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B78" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B79" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B81" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B82" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B83" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B84" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B85" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B86" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B87" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B88" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="20" thickBot="1">
-      <c r="A87" s="2" t="s">
+    <row r="89" spans="1:6" ht="20" thickBot="1">
+      <c r="A89" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-    </row>
-    <row r="88" spans="1:6" ht="16" thickTop="1">
-      <c r="A88" s="1" t="s">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6" ht="16" thickTop="1">
+      <c r="A90" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B90" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="1" t="s">
+    <row r="91" spans="1:6">
+      <c r="A91" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B91" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="20" thickBot="1">
-      <c r="A90" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-    </row>
-    <row r="91" spans="1:6" ht="16" thickTop="1">
-      <c r="A91" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B91" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>64</v>
+        <v>251</v>
       </c>
       <c r="B92" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>65</v>
+        <v>252</v>
       </c>
       <c r="B93" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="20" thickBot="1">
-      <c r="A94" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-    </row>
-    <row r="95" spans="1:6" ht="16" thickTop="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B94" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="B95" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B96" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="20" thickBot="1">
+      <c r="A96" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6" ht="16" thickTop="1">
       <c r="A97" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B97" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B98" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B99" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B100" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="20" thickBot="1">
+      <c r="A100" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:6" ht="16" thickTop="1">
       <c r="A101" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B101" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B102" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B103" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B104" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B105" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B106" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B107" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B108" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B109" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B110" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="20" thickBot="1">
-      <c r="A111" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-    </row>
-    <row r="112" spans="1:6" ht="16" thickTop="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B111" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B112" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B113" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B114" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B115" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B116" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B117" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="20" thickBot="1">
+      <c r="A117" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" spans="1:6" ht="16" thickTop="1">
       <c r="A118" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B118" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B119" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B120" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B121" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B122" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B123" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B124" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B125" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B126" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B127" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B128" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B129" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B130" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B131" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B132" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="19">
-      <c r="A127" s="10" t="s">
+    <row r="133" spans="1:6" ht="19">
+      <c r="A133" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="12" t="s">
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B128" s="13" t="s">
+      <c r="B134" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C128" s="14" t="s">
+      <c r="C134" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="D128" s="14"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B129" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B130" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B131" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B132" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B133" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B134" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B135" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
+        <v>98</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C135" s="17"/>
+      <c r="D135" s="17"/>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B136" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
+        <v>99</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C136" s="17"/>
+      <c r="D136" s="17"/>
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B137" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
+        <v>100</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C137" s="17"/>
+      <c r="D137" s="17"/>
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B138" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15"/>
+        <v>101</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B139" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
+        <v>102</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C139" s="17"/>
+      <c r="D139" s="17"/>
       <c r="E139" s="7"/>
       <c r="F139" s="7"/>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B140" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
+        <v>103</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C140" s="17"/>
+      <c r="D140" s="17"/>
       <c r="E140" s="7"/>
       <c r="F140" s="7"/>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="8" t="s">
+      <c r="A141" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="C142" s="17"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C145" s="17"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B147" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C141" s="16"/>
-      <c r="D141" s="16"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B142" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C142" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D142" s="14"/>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B143" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C143" s="15"/>
-      <c r="D143" s="15"/>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B144" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B145" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C145" s="15"/>
-      <c r="D145" s="15"/>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B146" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B147" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="18"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B148" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
+        <v>111</v>
+      </c>
+      <c r="B148" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D148" s="16"/>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B149" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
+        <v>112</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C149" s="17"/>
+      <c r="D149" s="17"/>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B150" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
+        <v>113</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C150" s="17"/>
+      <c r="D150" s="17"/>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B151" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="C151" s="15"/>
-      <c r="D151" s="15"/>
+        <v>114</v>
+      </c>
+      <c r="B151" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C151" s="17"/>
+      <c r="D151" s="17"/>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B152" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
+        <v>115</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C152" s="17"/>
+      <c r="D152" s="17"/>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B153" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="C153" s="15"/>
-      <c r="D153" s="15"/>
+        <v>116</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C153" s="17"/>
+      <c r="D153" s="17"/>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C154" s="17"/>
+      <c r="D154" s="17"/>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B155" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C155" s="17"/>
+      <c r="D155" s="17"/>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="C156" s="17"/>
+      <c r="D156" s="17"/>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C157" s="17"/>
+      <c r="D157" s="17"/>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C158" s="17"/>
+      <c r="D158" s="17"/>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B159" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C159" s="17"/>
+      <c r="D159" s="17"/>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B154" s="17" t="s">
+      <c r="B160" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="C154" s="15"/>
-      <c r="D154" s="15"/>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="8" t="s">
+      <c r="C160" s="17"/>
+      <c r="D160" s="17"/>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B161" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C155" s="16"/>
-      <c r="D155" s="16"/>
-    </row>
-    <row r="156" spans="1:6" ht="20" thickBot="1">
-      <c r="A156" s="2" t="s">
+      <c r="C161" s="18"/>
+      <c r="D161" s="18"/>
+    </row>
+    <row r="162" spans="1:6" ht="20" thickBot="1">
+      <c r="A162" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
-    </row>
-    <row r="157" spans="1:6" ht="16" thickTop="1">
-      <c r="A157" s="4" t="s">
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="1:6" ht="16" thickTop="1">
+      <c r="A163" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B163" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C157" s="18" t="s">
+      <c r="C163" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="D157" s="18"/>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158" s="6" t="s">
+      <c r="D163" s="19"/>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B158" s="17" t="s">
+      <c r="B164" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C158" s="15"/>
-      <c r="D158" s="15"/>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159" s="6" t="s">
+      <c r="C164" s="17"/>
+      <c r="D164" s="17"/>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B159" s="17" t="s">
+      <c r="B165" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C159" s="15"/>
-      <c r="D159" s="15"/>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160" s="6" t="s">
+      <c r="C165" s="17"/>
+      <c r="D165" s="17"/>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B160" s="17" t="s">
+      <c r="B166" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C160" s="15"/>
-      <c r="D160" s="15"/>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="6" t="s">
+      <c r="C166" s="17"/>
+      <c r="D166" s="17"/>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B161" s="17" t="s">
+      <c r="B167" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C161" s="15"/>
-      <c r="D161" s="15"/>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="6" t="s">
+      <c r="C167" s="17"/>
+      <c r="D167" s="17"/>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B162" s="17" t="s">
+      <c r="B168" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="C162" s="15"/>
-      <c r="D162" s="15"/>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="8" t="s">
+      <c r="C168" s="17"/>
+      <c r="D168" s="17"/>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B169" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C163" s="16"/>
-      <c r="D163" s="16"/>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="12" t="s">
+      <c r="C169" s="18"/>
+      <c r="D169" s="18"/>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="B170" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C164" s="14" t="s">
+      <c r="C170" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="D164" s="14"/>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="6" t="s">
+      <c r="D170" s="16"/>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B165" s="17" t="s">
+      <c r="B171" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C165" s="15"/>
-      <c r="D165" s="15"/>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="6" t="s">
+      <c r="C171" s="17"/>
+      <c r="D171" s="17"/>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B166" s="17" t="s">
+      <c r="B172" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C166" s="15"/>
-      <c r="D166" s="15"/>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="6" t="s">
+      <c r="C172" s="17"/>
+      <c r="D172" s="17"/>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B167" s="17" t="s">
+      <c r="B173" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C167" s="15"/>
-      <c r="D167" s="15"/>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="6" t="s">
+      <c r="C173" s="17"/>
+      <c r="D173" s="17"/>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B168" s="17" t="s">
+      <c r="B174" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C168" s="15"/>
-      <c r="D168" s="15"/>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="6" t="s">
+      <c r="C174" s="17"/>
+      <c r="D174" s="17"/>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B169" s="17" t="s">
+      <c r="B175" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="C169" s="15"/>
-      <c r="D169" s="15"/>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="8" t="s">
+      <c r="C175" s="17"/>
+      <c r="D175" s="17"/>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B176" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C170" s="16"/>
-      <c r="D170" s="16"/>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="6" t="s">
+      <c r="C176" s="18"/>
+      <c r="D176" s="18"/>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="B177" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C171" s="15" t="s">
+      <c r="C177" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="D171" s="15"/>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="6" t="s">
+      <c r="D177" s="17"/>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B172" s="17" t="s">
+      <c r="B178" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C172" s="15"/>
-      <c r="D172" s="15"/>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="6" t="s">
+      <c r="C178" s="17"/>
+      <c r="D178" s="17"/>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B173" s="17" t="s">
+      <c r="B179" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C173" s="15"/>
-      <c r="D173" s="15"/>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="6" t="s">
+      <c r="C179" s="17"/>
+      <c r="D179" s="17"/>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B174" s="17" t="s">
+      <c r="B180" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C174" s="15"/>
-      <c r="D174" s="15"/>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="6" t="s">
+      <c r="C180" s="17"/>
+      <c r="D180" s="17"/>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B175" s="17" t="s">
+      <c r="B181" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C175" s="15"/>
-      <c r="D175" s="15"/>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="6" t="s">
+      <c r="C181" s="17"/>
+      <c r="D181" s="17"/>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B176" s="17" t="s">
+      <c r="B182" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="C176" s="15"/>
-      <c r="D176" s="15"/>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="8" t="s">
+      <c r="C182" s="17"/>
+      <c r="D182" s="17"/>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B177" s="9" t="s">
+      <c r="B183" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C177" s="16"/>
-      <c r="D177" s="16"/>
+      <c r="C183" s="18"/>
+      <c r="D183" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C128:D141"/>
-    <mergeCell ref="C142:D155"/>
-    <mergeCell ref="C157:D163"/>
-    <mergeCell ref="C164:D170"/>
-    <mergeCell ref="C171:D177"/>
+    <mergeCell ref="C134:D147"/>
+    <mergeCell ref="C148:D161"/>
+    <mergeCell ref="C163:D169"/>
+    <mergeCell ref="C170:D176"/>
+    <mergeCell ref="C177:D183"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/app/static/user_data/Keywords.xlsx
+++ b/app/static/user_data/Keywords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="15620"/>
+    <workbookView xWindow="14060" yWindow="420" windowWidth="24000" windowHeight="15620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="287">
   <si>
     <t>{last_name}</t>
   </si>
@@ -808,6 +808,78 @@
   </si>
   <si>
     <t>Последние 2 цифры года рождения</t>
+  </si>
+  <si>
+    <t>Служебные данные</t>
+  </si>
+  <si>
+    <t>{personal_number}</t>
+  </si>
+  <si>
+    <t>{voin_chast}</t>
+  </si>
+  <si>
+    <t>{prisyaga_date}</t>
+  </si>
+  <si>
+    <t>Личный номер</t>
+  </si>
+  <si>
+    <t>Воинская часть</t>
+  </si>
+  <si>
+    <t>Дата принятия присяги</t>
+  </si>
+  <si>
+    <t>{chislo@prisyaga_date}</t>
+  </si>
+  <si>
+    <t>{month@prisyaga_date}</t>
+  </si>
+  <si>
+    <t>{year@prisyaga_date}</t>
+  </si>
+  <si>
+    <t>Число принятия присяги</t>
+  </si>
+  <si>
+    <t>Месяц принятия присяги</t>
+  </si>
+  <si>
+    <t>Год принятия присяги</t>
+  </si>
+  <si>
+    <t>Прочее</t>
+  </si>
+  <si>
+    <t>{generation_date}</t>
+  </si>
+  <si>
+    <t>{chislo@generation_date}</t>
+  </si>
+  <si>
+    <t>{month@generation_date}</t>
+  </si>
+  <si>
+    <t>{year@generation_date}</t>
+  </si>
+  <si>
+    <t>Дата документа</t>
+  </si>
+  <si>
+    <t>Число</t>
+  </si>
+  <si>
+    <t>Месяц</t>
+  </si>
+  <si>
+    <t>Год</t>
+  </si>
+  <si>
+    <t>{year_last2@generation_date}</t>
+  </si>
+  <si>
+    <t>Последние 2 цифры года</t>
   </si>
 </sst>
 </file>
@@ -922,7 +994,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -931,8 +1003,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -953,10 +1041,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -975,15 +1059,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="24">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1313,10 +1416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F183"/>
+  <dimension ref="A1:F196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B196" sqref="B196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1326,69 +1429,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="23">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="23" customHeight="1">
-      <c r="A2" s="15"/>
+      <c r="A2" s="13"/>
     </row>
     <row r="3" spans="1:1" ht="23" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="23">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="23">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="23">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="23">
-      <c r="A7" s="15"/>
+      <c r="A7" s="13"/>
     </row>
     <row r="8" spans="1:1" ht="23">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="23">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="23">
-      <c r="A10" s="15"/>
+      <c r="A10" s="13"/>
     </row>
     <row r="11" spans="1:1" ht="23">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="23">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="23">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="23">
-      <c r="A14" s="15"/>
+      <c r="A14" s="13"/>
     </row>
     <row r="15" spans="1:1" ht="23">
-      <c r="A15" s="15"/>
+      <c r="A15" s="13"/>
     </row>
     <row r="17" spans="1:6" ht="20" thickBot="1">
       <c r="A17" s="3" t="s">
@@ -2344,564 +2447,673 @@
         <v>233</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="19">
-      <c r="A133" s="10" t="s">
+    <row r="133" spans="1:6" ht="20" thickBot="1">
+      <c r="A133" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+    </row>
+    <row r="134" spans="1:6" ht="16" thickTop="1">
+      <c r="A134" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B134" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B135" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B136" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B137" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B138" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B139" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="20" thickBot="1">
+      <c r="A140" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="11"/>
-      <c r="F133" s="11"/>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="12" t="s">
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="1:6" ht="16" thickTop="1">
+      <c r="A141" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B134" s="13" t="s">
+      <c r="B141" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C134" s="16" t="s">
+      <c r="C141" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="D134" s="16"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13"/>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C135" s="17"/>
-      <c r="D135" s="17"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B136" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C136" s="17"/>
-      <c r="D136" s="17"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B137" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C137" s="17"/>
-      <c r="D137" s="17"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B138" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C138" s="17"/>
-      <c r="D138" s="17"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B139" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C139" s="17"/>
-      <c r="D139" s="17"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B140" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="C140" s="17"/>
-      <c r="D140" s="17"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B141" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C141" s="17"/>
-      <c r="D141" s="17"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B142" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="C142" s="17"/>
-      <c r="D142" s="17"/>
+        <v>98</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
       <c r="E142" s="7"/>
       <c r="F142" s="7"/>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B143" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="C143" s="17"/>
-      <c r="D143" s="17"/>
+        <v>99</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B144" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="C144" s="17"/>
-      <c r="D144" s="17"/>
+        <v>100</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B145" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C145" s="17"/>
-      <c r="D145" s="17"/>
+        <v>101</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B146" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="C146" s="17"/>
-      <c r="D146" s="17"/>
+        <v>102</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
       <c r="E146" s="7"/>
       <c r="F146" s="7"/>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="8" t="s">
+      <c r="A147" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B154" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C147" s="18"/>
-      <c r="D147" s="18"/>
-      <c r="E147" s="9"/>
-      <c r="F147" s="9"/>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B148" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="D148" s="16"/>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B149" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C149" s="17"/>
-      <c r="D149" s="17"/>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B150" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C150" s="17"/>
-      <c r="D150" s="17"/>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B151" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B152" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C152" s="17"/>
-      <c r="D152" s="17"/>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B153" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C153" s="17"/>
-      <c r="D153" s="17"/>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B154" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="C154" s="17"/>
-      <c r="D154" s="17"/>
+      <c r="C154" s="16"/>
+      <c r="D154" s="16"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B155" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C155" s="17"/>
-      <c r="D155" s="17"/>
+        <v>111</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C155" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D155" s="14"/>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B156" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="C156" s="17"/>
-      <c r="D156" s="17"/>
+        <v>112</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B157" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="C157" s="17"/>
-      <c r="D157" s="17"/>
+        <v>113</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B158" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="C158" s="17"/>
-      <c r="D158" s="17"/>
+        <v>114</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B159" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C159" s="17"/>
-      <c r="D159" s="17"/>
+        <v>115</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C161" s="15"/>
+      <c r="D161" s="15"/>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C164" s="15"/>
+      <c r="D164" s="15"/>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C165" s="15"/>
+      <c r="D165" s="15"/>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C166" s="15"/>
+      <c r="D166" s="15"/>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B160" s="14" t="s">
+      <c r="B167" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="C160" s="17"/>
-      <c r="D160" s="17"/>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161" s="8" t="s">
+      <c r="C167" s="15"/>
+      <c r="D167" s="15"/>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B168" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C161" s="18"/>
-      <c r="D161" s="18"/>
-    </row>
-    <row r="162" spans="1:6" ht="20" thickBot="1">
-      <c r="A162" s="2" t="s">
+      <c r="C168" s="16"/>
+      <c r="D168" s="16"/>
+    </row>
+    <row r="169" spans="1:6" ht="20" thickBot="1">
+      <c r="A169" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-    </row>
-    <row r="163" spans="1:6" ht="16" thickTop="1">
-      <c r="A163" s="4" t="s">
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+    </row>
+    <row r="170" spans="1:6" ht="16" thickTop="1">
+      <c r="A170" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B170" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C163" s="19" t="s">
+      <c r="C170" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="D163" s="19"/>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B164" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C164" s="17"/>
-      <c r="D164" s="17"/>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B165" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C165" s="17"/>
-      <c r="D165" s="17"/>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B166" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C166" s="17"/>
-      <c r="D166" s="17"/>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B167" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C167" s="17"/>
-      <c r="D167" s="17"/>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B168" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="C168" s="17"/>
-      <c r="D168" s="17"/>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C169" s="18"/>
-      <c r="D169" s="18"/>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C170" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="D170" s="16"/>
+      <c r="D170" s="17"/>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B171" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B171" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C171" s="17"/>
-      <c r="D171" s="17"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B172" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B172" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C172" s="17"/>
-      <c r="D172" s="17"/>
+      <c r="C172" s="15"/>
+      <c r="D172" s="15"/>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B173" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B173" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C173" s="17"/>
-      <c r="D173" s="17"/>
+      <c r="C173" s="15"/>
+      <c r="D173" s="15"/>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B174" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B174" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C174" s="17"/>
-      <c r="D174" s="17"/>
+      <c r="C174" s="15"/>
+      <c r="D174" s="15"/>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B175" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B175" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="C175" s="17"/>
-      <c r="D175" s="17"/>
+      <c r="C175" s="15"/>
+      <c r="D175" s="15"/>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B176" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C176" s="18"/>
-      <c r="D176" s="18"/>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="6" t="s">
-        <v>139</v>
+      <c r="C176" s="16"/>
+      <c r="D176" s="16"/>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C177" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="D177" s="17"/>
-    </row>
-    <row r="178" spans="1:4">
+      <c r="C177" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D177" s="14"/>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B178" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B178" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C178" s="17"/>
-      <c r="D178" s="17"/>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="C178" s="15"/>
+      <c r="D178" s="15"/>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B179" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B179" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C179" s="17"/>
-      <c r="D179" s="17"/>
-    </row>
-    <row r="180" spans="1:4">
+      <c r="C179" s="15"/>
+      <c r="D179" s="15"/>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B180" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B180" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C180" s="17"/>
-      <c r="D180" s="17"/>
-    </row>
-    <row r="181" spans="1:4">
+      <c r="C180" s="15"/>
+      <c r="D180" s="15"/>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B181" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B181" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C181" s="17"/>
-      <c r="D181" s="17"/>
-    </row>
-    <row r="182" spans="1:4">
+      <c r="C181" s="15"/>
+      <c r="D181" s="15"/>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B182" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B182" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="C182" s="17"/>
-      <c r="D182" s="17"/>
-    </row>
-    <row r="183" spans="1:4">
+      <c r="C182" s="15"/>
+      <c r="D182" s="15"/>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" s="8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B183" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C183" s="18"/>
-      <c r="D183" s="18"/>
+      <c r="C183" s="16"/>
+      <c r="D183" s="16"/>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C184" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D184" s="15"/>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B185" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C185" s="15"/>
+      <c r="D185" s="15"/>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C186" s="15"/>
+      <c r="D186" s="15"/>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B187" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C187" s="15"/>
+      <c r="D187" s="15"/>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B188" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C188" s="15"/>
+      <c r="D188" s="15"/>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B189" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C189" s="15"/>
+      <c r="D189" s="15"/>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C190" s="16"/>
+      <c r="D190" s="16"/>
+    </row>
+    <row r="191" spans="1:6" ht="20" thickBot="1">
+      <c r="A191" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+    </row>
+    <row r="192" spans="1:6" ht="16" thickTop="1">
+      <c r="A192" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="B192" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B193" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="B194" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="B195" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B196" s="12" t="s">
+        <v>286</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C134:D147"/>
-    <mergeCell ref="C148:D161"/>
-    <mergeCell ref="C163:D169"/>
+    <mergeCell ref="C141:D154"/>
+    <mergeCell ref="C155:D168"/>
     <mergeCell ref="C170:D176"/>
     <mergeCell ref="C177:D183"/>
+    <mergeCell ref="C184:D190"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/app/static/user_data/Keywords.xlsx
+++ b/app/static/user_data/Keywords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14060" yWindow="420" windowWidth="24000" windowHeight="15620"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="24000" windowHeight="15620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="305">
   <si>
     <t>{last_name}</t>
   </si>
@@ -880,6 +880,60 @@
   </si>
   <si>
     <t>Последние 2 цифры года</t>
+  </si>
+  <si>
+    <t>{voin_chast_adr}</t>
+  </si>
+  <si>
+    <t>{order_personal_number}</t>
+  </si>
+  <si>
+    <t>{order_rank}</t>
+  </si>
+  <si>
+    <t>{sbory_from}</t>
+  </si>
+  <si>
+    <t>{sbory_to}</t>
+  </si>
+  <si>
+    <t>{fvo_from</t>
+  </si>
+  <si>
+    <t>{fvo_to}</t>
+  </si>
+  <si>
+    <t>Адрес воинской части</t>
+  </si>
+  <si>
+    <t>Приказ о присвоении личного номера</t>
+  </si>
+  <si>
+    <t>Приказ о присвоении звания</t>
+  </si>
+  <si>
+    <t>Период сборов с</t>
+  </si>
+  <si>
+    <t>Период сборов по</t>
+  </si>
+  <si>
+    <t>Период обучения на ФВО с</t>
+  </si>
+  <si>
+    <t>Период обучения на ФВО по</t>
+  </si>
+  <si>
+    <t>{vus@rank}</t>
+  </si>
+  <si>
+    <t>{vus@tech_type}</t>
+  </si>
+  <si>
+    <t>Звание</t>
+  </si>
+  <si>
+    <t>Тип (марка) вооружения (военной техники)</t>
   </si>
 </sst>
 </file>
@@ -994,9 +1048,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1063,7 +1119,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="24">
+  <cellStyles count="26">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1075,6 +1131,7 @@
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
@@ -1087,6 +1144,7 @@
     <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1416,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F196"/>
+  <dimension ref="A1:F205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B196" sqref="B196"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2145,504 +2203,468 @@
         <v>258</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="20" thickBot="1">
-      <c r="A96" s="2" t="s">
+    <row r="96" spans="1:6">
+      <c r="A96" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B96" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B97" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="20" thickBot="1">
+      <c r="A98" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-    </row>
-    <row r="97" spans="1:6" ht="16" thickTop="1">
-      <c r="A97" s="1" t="s">
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:6" ht="16" thickTop="1">
+      <c r="A99" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B99" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="1" t="s">
+    <row r="100" spans="1:6">
+      <c r="A100" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B100" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="1" t="s">
+    <row r="101" spans="1:6">
+      <c r="A101" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B101" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="20" thickBot="1">
-      <c r="A100" s="2" t="s">
+    <row r="102" spans="1:6" ht="20" thickBot="1">
+      <c r="A102" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-    </row>
-    <row r="101" spans="1:6" ht="16" thickTop="1">
-      <c r="A101" s="1" t="s">
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="1:6" ht="16" thickTop="1">
+      <c r="A103" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B103" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B102" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B103" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B104" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B105" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B106" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B107" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B110" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B111" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B112" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B113" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B114" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B115" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B116" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B117" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B118" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="20" thickBot="1">
-      <c r="A117" s="2" t="s">
+    <row r="119" spans="1:6" ht="20" thickBot="1">
+      <c r="A119" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-    </row>
-    <row r="118" spans="1:6" ht="16" thickTop="1">
-      <c r="A118" s="1" t="s">
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="1:6" ht="16" thickTop="1">
+      <c r="A120" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B120" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B119" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B120" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B121" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B122" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B123" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B124" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B125" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B126" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B127" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B128" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B129" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B130" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B131" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B132" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B133" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B134" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="20" thickBot="1">
-      <c r="A133" s="2" t="s">
+    <row r="135" spans="1:6" ht="20" thickBot="1">
+      <c r="A135" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-    </row>
-    <row r="134" spans="1:6" ht="16" thickTop="1">
-      <c r="A134" s="1" t="s">
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" spans="1:6" ht="16" thickTop="1">
+      <c r="A136" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B136" t="s">
         <v>267</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B135" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B136" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B137" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B138" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B139" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B140" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B141" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="20" thickBot="1">
-      <c r="A140" s="2" t="s">
+    <row r="142" spans="1:6">
+      <c r="A142" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B142" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B143" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B144" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B145" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B146" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B147" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B148" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="20" thickBot="1">
+      <c r="A149" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-    </row>
-    <row r="141" spans="1:6" ht="16" thickTop="1">
-      <c r="A141" s="10" t="s">
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" spans="1:6" ht="16" thickTop="1">
+      <c r="A150" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B150" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C141" s="14" t="s">
+      <c r="C150" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="D141" s="14"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="11"/>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C143" s="15"/>
-      <c r="D143" s="15"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B144" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B145" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C145" s="15"/>
-      <c r="D145" s="15"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="7"/>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B146" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B147" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B148" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B149" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B150" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="C151" s="15"/>
       <c r="D151" s="15"/>
@@ -2651,10 +2673,10 @@
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="C152" s="15"/>
       <c r="D152" s="15"/>
@@ -2663,10 +2685,10 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>235</v>
+        <v>164</v>
       </c>
       <c r="C153" s="15"/>
       <c r="D153" s="15"/>
@@ -2674,442 +2696,550 @@
       <c r="F153" s="7"/>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C154" s="16"/>
-      <c r="D154" s="16"/>
-      <c r="E154" s="9"/>
-      <c r="F154" s="9"/>
+      <c r="A154" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B155" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C155" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D155" s="14"/>
+      <c r="A155" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="1" t="s">
-        <v>112</v>
+      <c r="A156" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="C156" s="15"/>
       <c r="D156" s="15"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="1" t="s">
-        <v>113</v>
+      <c r="A157" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="C157" s="15"/>
       <c r="D157" s="15"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="1" t="s">
-        <v>114</v>
+      <c r="A158" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="C158" s="15"/>
       <c r="D158" s="15"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="1" t="s">
-        <v>115</v>
+      <c r="A159" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="C159" s="15"/>
       <c r="D159" s="15"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="1" t="s">
-        <v>116</v>
+      <c r="A160" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C160" s="15"/>
       <c r="D160" s="15"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="1" t="s">
-        <v>117</v>
+      <c r="A161" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="C161" s="15"/>
       <c r="D161" s="15"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="1" t="s">
-        <v>118</v>
+      <c r="A162" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="C162" s="15"/>
       <c r="D162" s="15"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B163" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="C163" s="15"/>
-      <c r="D163" s="15"/>
+      <c r="A163" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C163" s="16"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B164" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="C164" s="15"/>
-      <c r="D164" s="15"/>
+        <v>111</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C164" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D164" s="14"/>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="C165" s="15"/>
       <c r="D165" s="15"/>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="C166" s="15"/>
       <c r="D166" s="15"/>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>235</v>
+        <v>164</v>
       </c>
       <c r="C167" s="15"/>
       <c r="D167" s="15"/>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C168" s="16"/>
-      <c r="D168" s="16"/>
-    </row>
-    <row r="169" spans="1:6" ht="20" thickBot="1">
-      <c r="A169" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
-    </row>
-    <row r="170" spans="1:6" ht="16" thickTop="1">
-      <c r="A170" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C170" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="D170" s="17"/>
+      <c r="A168" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C168" s="15"/>
+      <c r="D168" s="15"/>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C169" s="15"/>
+      <c r="D169" s="15"/>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C170" s="15"/>
+      <c r="D170" s="15"/>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="6" t="s">
-        <v>126</v>
+      <c r="A171" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="C171" s="15"/>
       <c r="D171" s="15"/>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="6" t="s">
-        <v>127</v>
+      <c r="A172" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="C172" s="15"/>
       <c r="D172" s="15"/>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="6" t="s">
-        <v>128</v>
+      <c r="A173" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="C173" s="15"/>
       <c r="D173" s="15"/>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="6" t="s">
-        <v>129</v>
+      <c r="A174" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="C174" s="15"/>
       <c r="D174" s="15"/>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="6" t="s">
-        <v>130</v>
+      <c r="A175" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="C175" s="15"/>
       <c r="D175" s="15"/>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B176" s="9" t="s">
+      <c r="A176" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C176" s="15"/>
+      <c r="D176" s="15"/>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B177" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C176" s="16"/>
-      <c r="D176" s="16"/>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B177" s="7" t="s">
+      <c r="C177" s="16"/>
+      <c r="D177" s="16"/>
+    </row>
+    <row r="178" spans="1:6" ht="20" thickBot="1">
+      <c r="A178" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+    </row>
+    <row r="179" spans="1:6" ht="16" thickTop="1">
+      <c r="A179" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B179" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C177" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D177" s="14"/>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B178" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C178" s="15"/>
-      <c r="D178" s="15"/>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B179" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C179" s="15"/>
-      <c r="D179" s="15"/>
+      <c r="C179" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D179" s="17"/>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C180" s="15"/>
       <c r="D180" s="15"/>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="6" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C181" s="15"/>
       <c r="D181" s="15"/>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="6" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>235</v>
+        <v>164</v>
       </c>
       <c r="C182" s="15"/>
       <c r="D182" s="15"/>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C183" s="16"/>
-      <c r="D183" s="16"/>
+      <c r="A183" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B183" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C183" s="15"/>
+      <c r="D183" s="15"/>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B184" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C184" s="15"/>
+      <c r="D184" s="15"/>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C185" s="16"/>
+      <c r="D185" s="16"/>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B186" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C184" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="D184" s="15"/>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B185" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C185" s="15"/>
-      <c r="D185" s="15"/>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B186" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C186" s="15"/>
-      <c r="D186" s="15"/>
+      <c r="C186" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D186" s="14"/>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="6" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C187" s="15"/>
       <c r="D187" s="15"/>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="6" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C188" s="15"/>
       <c r="D188" s="15"/>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>235</v>
+        <v>164</v>
       </c>
       <c r="C189" s="15"/>
       <c r="D189" s="15"/>
     </row>
     <row r="190" spans="1:6">
-      <c r="A190" s="8" t="s">
+      <c r="A190" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C190" s="15"/>
+      <c r="D190" s="15"/>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C191" s="15"/>
+      <c r="D191" s="15"/>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C192" s="16"/>
+      <c r="D192" s="16"/>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C193" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D193" s="15"/>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B194" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C194" s="15"/>
+      <c r="D194" s="15"/>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B195" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C195" s="15"/>
+      <c r="D195" s="15"/>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B196" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C196" s="15"/>
+      <c r="D196" s="15"/>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B197" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C197" s="15"/>
+      <c r="D197" s="15"/>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B198" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C198" s="15"/>
+      <c r="D198" s="15"/>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B190" s="9" t="s">
+      <c r="B199" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C190" s="16"/>
-      <c r="D190" s="16"/>
-    </row>
-    <row r="191" spans="1:6" ht="20" thickBot="1">
-      <c r="A191" s="3" t="s">
+      <c r="C199" s="16"/>
+      <c r="D199" s="16"/>
+    </row>
+    <row r="200" spans="1:6" ht="20" thickBot="1">
+      <c r="A200" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
-    </row>
-    <row r="192" spans="1:6" ht="16" thickTop="1">
-      <c r="A192" s="18" t="s">
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+    </row>
+    <row r="201" spans="1:6" ht="16" thickTop="1">
+      <c r="A201" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="B192" s="12" t="s">
+      <c r="B201" s="12" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="18" t="s">
+    <row r="202" spans="1:6">
+      <c r="A202" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="B193" s="12" t="s">
+      <c r="B202" s="12" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="18" t="s">
+    <row r="203" spans="1:6">
+      <c r="A203" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="B194" s="12" t="s">
+      <c r="B203" s="12" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="18" t="s">
+    <row r="204" spans="1:6">
+      <c r="A204" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="B195" s="12" t="s">
+      <c r="B204" s="12" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="18" t="s">
+    <row r="205" spans="1:6">
+      <c r="A205" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="B196" s="12" t="s">
+      <c r="B205" s="12" t="s">
         <v>286</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C141:D154"/>
-    <mergeCell ref="C155:D168"/>
-    <mergeCell ref="C170:D176"/>
-    <mergeCell ref="C177:D183"/>
-    <mergeCell ref="C184:D190"/>
+    <mergeCell ref="C150:D163"/>
+    <mergeCell ref="C164:D177"/>
+    <mergeCell ref="C179:D185"/>
+    <mergeCell ref="C186:D192"/>
+    <mergeCell ref="C193:D199"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
